--- a/Secao03/LetraMaiúsculaPrimeiraPalavra.xlsx
+++ b/Secao03/LetraMaiúsculaPrimeiraPalavra.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Curso de Excel\Novas Aulas Mar-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\gabrielrstan\Aulas\Curso_de_Excel_do_Basico_ao_Avancado_Macro_e_VBA_plus_Power_BI\Secao03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B203A34-3E90-4A77-ACA8-945BE3822687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="-105" yWindow="375" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="4" r:id="rId1"/>
     <sheet name="Aluno" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -51,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +176,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,61 +501,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78223B1C-2916-415F-94CE-8640CAC99758}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="119.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="119.5" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" s="2" customFormat="1">
       <c r="D1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="2:9" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="2:9" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="11" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="2:9" s="2" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" s="2" customFormat="1" ht="22.5">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -569,7 +563,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" s="2" customFormat="1" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" s="2" customFormat="1" ht="23.65" customHeight="1">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
@@ -581,7 +575,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" s="2" customFormat="1" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" s="2" customFormat="1" ht="23.65" customHeight="1">
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
@@ -593,56 +587,56 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" s="2" customFormat="1">
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="19.5">
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" ht="19.5">
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" ht="19.5">
       <c r="C12" s="4" t="str">
         <f>LEFT(UPPER(C11),1)&amp;LOWER(MID(C11,2,30000))</f>
         <v>Curso de excel do básico ao avançado, macro e vba + power bi</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C15" s="13" t="str">
+    <row r="15" spans="2:9" ht="34.5">
+      <c r="C15" s="11" t="str">
         <f>LEFT(UPPER(C11),1)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C16" s="13" t="str">
+    <row r="16" spans="2:9" ht="34.5">
+      <c r="C16" s="11" t="str">
         <f>LOWER(MID(C11,2,30000))</f>
         <v>urso de excel do básico ao avançado, macro e vba + power bi</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C17" s="13" t="str">
+    <row r="17" spans="3:3" ht="34.5">
+      <c r="C17" s="11" t="str">
         <f>MID(C11,2,30000)</f>
         <v>urso de Excel do Básico ao Avançado, MACRO e VBA + Power BI</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="3:3" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="3:3" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="3:3" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="C21" s="13"/>
+    <row r="18" spans="3:3" ht="34.5">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="3:3" ht="34.5">
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="3:3" ht="34.5">
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="3:3" ht="34.5">
+      <c r="C21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -655,63 +649,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32872E58-69A6-47F1-BC91-6F09B961B75A}">
-  <dimension ref="B1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="24.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="119.44140625" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" customWidth="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="119.5" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" s="2" customFormat="1">
       <c r="D1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:9" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:9" s="2" customFormat="1" ht="15.6" customHeight="1">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="2:9" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="2:9" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B5" s="11" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" s="2" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="2:9" s="2" customFormat="1" ht="14.45" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" s="2" customFormat="1" ht="22.5">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -719,7 +713,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" s="2" customFormat="1" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" s="2" customFormat="1" ht="23.65" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
@@ -731,7 +725,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" s="2" customFormat="1" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" s="2" customFormat="1" ht="23.65" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -743,23 +737,68 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" s="2" customFormat="1">
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="10" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="19.5">
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" ht="19.5">
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="C12" s="4"/>
+    <row r="12" spans="2:9" ht="19.5">
+      <c r="C12" s="4" t="str">
+        <f>LEFT(UPPER(C11),1)&amp;LOWER(MID(C11,2,30000))</f>
+        <v>Curso de excel do básico ao avançado, macro e vba + power bi</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="34.5">
+      <c r="C14" s="11" t="str">
+        <f>LEFT(UPPER(C11),1)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="34.5">
+      <c r="C15" s="11" t="str">
+        <f>LOWER(MID(C11,2,30000))</f>
+        <v>urso de excel do básico ao avançado, macro e vba + power bi</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="34.5">
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="3:3" ht="34.5">
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="3:3" ht="34.5">
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="3:3" ht="34.5">
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="3:3" ht="34.5">
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="3:3" ht="34.5">
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="3:3" ht="34.5">
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="3:3" ht="34.5">
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="3:3" ht="34.5">
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="3:3" ht="34.5">
+      <c r="C25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -767,5 +806,6 @@
     <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>